--- a/Plan_Kangkung_Daily.xlsx
+++ b/Plan_Kangkung_Daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LF\NOV25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204C0F9-8128-4092-BCC9-5A124EC96FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77014894-2DDD-4294-8992-64F6D0620811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{65D86592-8B1C-4B59-9172-662E88479B0D}"/>
   </bookViews>
@@ -56915,7 +56915,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59191,11 +59191,11 @@
         <v>45983</v>
       </c>
       <c r="I44" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J44" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" s="25">
         <v>14.56</v>
@@ -59243,11 +59243,11 @@
         <v>45983</v>
       </c>
       <c r="I45" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J45" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K45" s="25">
         <v>15.27</v>
@@ -59295,11 +59295,11 @@
         <v>45983</v>
       </c>
       <c r="I46" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J46" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K46" s="25">
         <v>14.32</v>
@@ -59347,11 +59347,11 @@
         <v>45983</v>
       </c>
       <c r="I47" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J47" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K47" s="25">
         <v>15.29</v>
@@ -59399,11 +59399,11 @@
         <v>45983</v>
       </c>
       <c r="I48" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J48" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K48" s="25">
         <v>11.74</v>
@@ -59451,11 +59451,11 @@
         <v>45983</v>
       </c>
       <c r="I49" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J49" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K49" s="25">
         <v>11.28</v>
@@ -59503,11 +59503,11 @@
         <v>45983</v>
       </c>
       <c r="I50" s="77">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J50" s="78">
         <f t="shared" si="40"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K50" s="25">
         <v>8.2100000000000009</v>
